--- a/Diagram Konteks Detail.xlsx
+++ b/Diagram Konteks Detail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Administrator</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Pembina Mahasiswa</t>
+  </si>
+  <si>
+    <t>Dosen</t>
+  </si>
+  <si>
+    <t>Berita Acara</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,11 +420,11 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="10" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,15 +450,19 @@
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -501,8 +511,14 @@
       <c r="P2" t="s">
         <v>7</v>
       </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -512,8 +528,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -521,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -529,20 +548,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
